--- a/data/pca/factorExposure/factorExposure_2015-07-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02002195512065307</v>
+        <v>0.009321686059452374</v>
       </c>
       <c r="C2">
-        <v>-0.0248832635270957</v>
+        <v>-0.05262741696545543</v>
       </c>
       <c r="D2">
-        <v>0.1217577689023817</v>
+        <v>0.1410354832336215</v>
       </c>
       <c r="E2">
-        <v>-0.00588485282620156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01080930589520414</v>
+      </c>
+      <c r="F2">
+        <v>-0.01565811532232266</v>
+      </c>
+      <c r="G2">
+        <v>0.1203164344221262</v>
+      </c>
+      <c r="H2">
+        <v>-0.07269219110968156</v>
+      </c>
+      <c r="I2">
+        <v>0.02262973071970337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0001697934707460785</v>
+        <v>-0.0022640367233782</v>
       </c>
       <c r="C3">
-        <v>-0.009404596072636094</v>
+        <v>-0.006102117756633257</v>
       </c>
       <c r="D3">
-        <v>0.005240027300841313</v>
+        <v>0.00652357554253307</v>
       </c>
       <c r="E3">
-        <v>0.008110718009601406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01897855414537967</v>
+      </c>
+      <c r="F3">
+        <v>0.005622639364199739</v>
+      </c>
+      <c r="G3">
+        <v>0.006906371029997541</v>
+      </c>
+      <c r="H3">
+        <v>0.002144598264938027</v>
+      </c>
+      <c r="I3">
+        <v>-0.0244639489189863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0461964264138145</v>
+        <v>0.01923025549399994</v>
       </c>
       <c r="C4">
-        <v>-0.06810291361454954</v>
+        <v>-0.0998484664462396</v>
       </c>
       <c r="D4">
-        <v>0.1319555085261885</v>
+        <v>0.1382737731726438</v>
       </c>
       <c r="E4">
-        <v>0.07213718364786134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01394306659017134</v>
+      </c>
+      <c r="F4">
+        <v>-0.08734816773323476</v>
+      </c>
+      <c r="G4">
+        <v>0.008504716723787767</v>
+      </c>
+      <c r="H4">
+        <v>-0.04521586477536089</v>
+      </c>
+      <c r="I4">
+        <v>0.03775165382504808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02525947941400731</v>
+        <v>0.02584639692149754</v>
       </c>
       <c r="C6">
-        <v>-0.01291659024974101</v>
+        <v>-0.03119535597614953</v>
       </c>
       <c r="D6">
-        <v>0.1427898091543905</v>
+        <v>0.1281469913618975</v>
       </c>
       <c r="E6">
-        <v>0.02960948463072414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04558201120489913</v>
+      </c>
+      <c r="F6">
+        <v>-0.05433320310027482</v>
+      </c>
+      <c r="G6">
+        <v>0.01154561037129426</v>
+      </c>
+      <c r="H6">
+        <v>-0.06868320689987478</v>
+      </c>
+      <c r="I6">
+        <v>-0.02732739537282729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008027308387451269</v>
+        <v>0.008421134083311133</v>
       </c>
       <c r="C7">
-        <v>-0.02298832770855298</v>
+        <v>-0.03317716479273923</v>
       </c>
       <c r="D7">
-        <v>0.113475947626385</v>
+        <v>0.1006513957488985</v>
       </c>
       <c r="E7">
-        <v>-0.005189935089588648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05034654042046453</v>
+      </c>
+      <c r="F7">
+        <v>-0.006800578531840614</v>
+      </c>
+      <c r="G7">
+        <v>-0.009937859640579638</v>
+      </c>
+      <c r="H7">
+        <v>-0.07316857850942908</v>
+      </c>
+      <c r="I7">
+        <v>-0.02056547499859759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.000530983864766375</v>
+        <v>-0.01085263402601762</v>
       </c>
       <c r="C8">
-        <v>-0.02672206678630625</v>
+        <v>-0.03269774802918007</v>
       </c>
       <c r="D8">
-        <v>0.08385555011628902</v>
+        <v>0.08066928248773655</v>
       </c>
       <c r="E8">
-        <v>0.01885614119261467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02058590308525445</v>
+      </c>
+      <c r="F8">
+        <v>-0.04306231649605719</v>
+      </c>
+      <c r="G8">
+        <v>0.06938611444032576</v>
+      </c>
+      <c r="H8">
+        <v>-0.01146199519511159</v>
+      </c>
+      <c r="I8">
+        <v>-0.04401153117557954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0397095460328205</v>
+        <v>0.01398373108193922</v>
       </c>
       <c r="C9">
-        <v>-0.05922600853725055</v>
+        <v>-0.08411757173377932</v>
       </c>
       <c r="D9">
-        <v>0.1339772075453409</v>
+        <v>0.1208283720596229</v>
       </c>
       <c r="E9">
-        <v>0.05615797781657435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.00480339435733789</v>
+      </c>
+      <c r="F9">
+        <v>-0.05783581881011261</v>
+      </c>
+      <c r="G9">
+        <v>-0.01279678882590908</v>
+      </c>
+      <c r="H9">
+        <v>-0.06059504162870239</v>
+      </c>
+      <c r="I9">
+        <v>0.007144986638745428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1530980621676659</v>
+        <v>0.2325041901519934</v>
       </c>
       <c r="C10">
-        <v>0.1809396998081452</v>
+        <v>0.1021713592712991</v>
       </c>
       <c r="D10">
-        <v>0.01156037443067471</v>
+        <v>-0.002948209065982361</v>
       </c>
       <c r="E10">
-        <v>0.04695386883579931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02491664481042307</v>
+      </c>
+      <c r="F10">
+        <v>-0.03844259574367854</v>
+      </c>
+      <c r="G10">
+        <v>0.004047493066742675</v>
+      </c>
+      <c r="H10">
+        <v>0.06822265829338774</v>
+      </c>
+      <c r="I10">
+        <v>-0.1186830750964012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0227621447873184</v>
+        <v>0.009371022185617793</v>
       </c>
       <c r="C11">
-        <v>-0.04016713809147343</v>
+        <v>-0.05299991070263407</v>
       </c>
       <c r="D11">
-        <v>0.05121312157490215</v>
+        <v>0.04381844535122554</v>
       </c>
       <c r="E11">
-        <v>-0.01762128810522007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01989562735659569</v>
+      </c>
+      <c r="F11">
+        <v>0.01189687577811976</v>
+      </c>
+      <c r="G11">
+        <v>-0.005524965404711976</v>
+      </c>
+      <c r="H11">
+        <v>-0.05124251756047703</v>
+      </c>
+      <c r="I11">
+        <v>0.04028223147526168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02508521301748212</v>
+        <v>0.009881136177639168</v>
       </c>
       <c r="C12">
-        <v>-0.04027333599547896</v>
+        <v>-0.05007181932297682</v>
       </c>
       <c r="D12">
-        <v>0.06550238147943108</v>
+        <v>0.04956846687988024</v>
       </c>
       <c r="E12">
-        <v>-0.009502166445995256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01868749854451602</v>
+      </c>
+      <c r="F12">
+        <v>0.01758370904724151</v>
+      </c>
+      <c r="G12">
+        <v>-0.0286370377165385</v>
+      </c>
+      <c r="H12">
+        <v>-0.07189582955941493</v>
+      </c>
+      <c r="I12">
+        <v>0.02502282923553115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.006355696151087179</v>
+        <v>-0.00227488005875936</v>
       </c>
       <c r="C13">
-        <v>-0.02581592787809254</v>
+        <v>-0.04432220622255714</v>
       </c>
       <c r="D13">
-        <v>0.1550021878449014</v>
+        <v>0.1528929302863608</v>
       </c>
       <c r="E13">
-        <v>0.02434476471116997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03906676731467722</v>
+      </c>
+      <c r="F13">
+        <v>-0.03573733194050465</v>
+      </c>
+      <c r="G13">
+        <v>0.03064497604567922</v>
+      </c>
+      <c r="H13">
+        <v>-0.0852891685635218</v>
+      </c>
+      <c r="I13">
+        <v>-0.09666703624460937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.00185493610287068</v>
+        <v>-0.002075507172822969</v>
       </c>
       <c r="C14">
-        <v>-0.01970907895799757</v>
+        <v>-0.02830276673585017</v>
       </c>
       <c r="D14">
-        <v>0.1075320679287874</v>
+        <v>0.1050547145471286</v>
       </c>
       <c r="E14">
-        <v>0.00423282903493371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03214052722437936</v>
+      </c>
+      <c r="F14">
+        <v>-0.02455644865299743</v>
+      </c>
+      <c r="G14">
+        <v>0.0057680702385899</v>
+      </c>
+      <c r="H14">
+        <v>-0.126032050077327</v>
+      </c>
+      <c r="I14">
+        <v>-0.0142581366440871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001219872010132366</v>
+        <v>-0.001327287393315346</v>
       </c>
       <c r="C15">
-        <v>-0.01087703090059905</v>
+        <v>-0.0194469687693688</v>
       </c>
       <c r="D15">
-        <v>0.02709142185599519</v>
+        <v>0.05348039585158362</v>
       </c>
       <c r="E15">
-        <v>-0.005652809631970497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006462701375050182</v>
+      </c>
+      <c r="F15">
+        <v>-0.003058945923682842</v>
+      </c>
+      <c r="G15">
+        <v>0.02144340919466529</v>
+      </c>
+      <c r="H15">
+        <v>-0.02366350266405222</v>
+      </c>
+      <c r="I15">
+        <v>0.01968082226507134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02302631670823159</v>
+        <v>0.00975290589012876</v>
       </c>
       <c r="C16">
-        <v>-0.03825873813165519</v>
+        <v>-0.04860897340697724</v>
       </c>
       <c r="D16">
-        <v>0.05842096215512498</v>
+        <v>0.0453630256378261</v>
       </c>
       <c r="E16">
-        <v>-0.01141876167096624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02114573006014645</v>
+      </c>
+      <c r="F16">
+        <v>0.008313959204253193</v>
+      </c>
+      <c r="G16">
+        <v>-0.01736079352287602</v>
+      </c>
+      <c r="H16">
+        <v>-0.05523935745406131</v>
+      </c>
+      <c r="I16">
+        <v>0.03736946620670604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006934643184307576</v>
+        <v>0.0002510199175403215</v>
       </c>
       <c r="C19">
-        <v>-0.02146996917196302</v>
+        <v>-0.02024894271177263</v>
       </c>
       <c r="D19">
-        <v>0.1168803076513463</v>
+        <v>0.07371190597793044</v>
       </c>
       <c r="E19">
-        <v>0.0376929257212569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0196401236656482</v>
+      </c>
+      <c r="F19">
+        <v>-0.009593218121915291</v>
+      </c>
+      <c r="G19">
+        <v>0.01324510617706909</v>
+      </c>
+      <c r="H19">
+        <v>-0.07037852206488364</v>
+      </c>
+      <c r="I19">
+        <v>-0.04832626804929446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.005862489548867816</v>
+        <v>0.003736465923320845</v>
       </c>
       <c r="C20">
-        <v>-0.02544871366167889</v>
+        <v>-0.03804665262909619</v>
       </c>
       <c r="D20">
-        <v>0.0927418729057372</v>
+        <v>0.09678754355370398</v>
       </c>
       <c r="E20">
-        <v>0.0297391373166202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008967971222165862</v>
+      </c>
+      <c r="F20">
+        <v>-0.02660841189664241</v>
+      </c>
+      <c r="G20">
+        <v>-0.003217400270210618</v>
+      </c>
+      <c r="H20">
+        <v>-0.05805361875032634</v>
+      </c>
+      <c r="I20">
+        <v>0.0008678984541646196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.009209919943829673</v>
+        <v>0.002341067908776385</v>
       </c>
       <c r="C21">
-        <v>-0.0305523309064151</v>
+        <v>-0.04201032753086713</v>
       </c>
       <c r="D21">
-        <v>0.169583515009087</v>
+        <v>0.1350803895162816</v>
       </c>
       <c r="E21">
-        <v>0.06023619667600248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.001257574334169575</v>
+      </c>
+      <c r="F21">
+        <v>-0.07077027344224761</v>
+      </c>
+      <c r="G21">
+        <v>0.005857062733950128</v>
+      </c>
+      <c r="H21">
+        <v>-0.1788291063698546</v>
+      </c>
+      <c r="I21">
+        <v>-0.1163373042262894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.00369321200183311</v>
+        <v>-0.01216740589201742</v>
       </c>
       <c r="C22">
-        <v>-0.06038891573824508</v>
+        <v>-0.08215905576912365</v>
       </c>
       <c r="D22">
-        <v>0.2215951246079182</v>
+        <v>0.2599277604992018</v>
       </c>
       <c r="E22">
-        <v>-0.04150229529412623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05239784678465782</v>
+      </c>
+      <c r="F22">
+        <v>-0.02880105910824986</v>
+      </c>
+      <c r="G22">
+        <v>0.3565359345953171</v>
+      </c>
+      <c r="H22">
+        <v>0.3870554297859673</v>
+      </c>
+      <c r="I22">
+        <v>0.1273262402042114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003962145534913936</v>
+        <v>-0.01169617487852277</v>
       </c>
       <c r="C23">
-        <v>-0.06086563728986811</v>
+        <v>-0.08313914561672192</v>
       </c>
       <c r="D23">
-        <v>0.2211715247429029</v>
+        <v>0.2605684163736465</v>
       </c>
       <c r="E23">
-        <v>-0.0413358413583305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04927325035882561</v>
+      </c>
+      <c r="F23">
+        <v>-0.02814373771120204</v>
+      </c>
+      <c r="G23">
+        <v>0.3554151546860059</v>
+      </c>
+      <c r="H23">
+        <v>0.3875363535726028</v>
+      </c>
+      <c r="I23">
+        <v>0.1291854737039824</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02978006615385385</v>
+        <v>0.009075651840965657</v>
       </c>
       <c r="C24">
-        <v>-0.05624434269486709</v>
+        <v>-0.06580551747334758</v>
       </c>
       <c r="D24">
-        <v>0.07095259042310696</v>
+        <v>0.05336714237846467</v>
       </c>
       <c r="E24">
-        <v>-0.00880592838503013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02546701543080444</v>
+      </c>
+      <c r="F24">
+        <v>0.006401377814637931</v>
+      </c>
+      <c r="G24">
+        <v>-0.01130330028924266</v>
+      </c>
+      <c r="H24">
+        <v>-0.0798003693395159</v>
+      </c>
+      <c r="I24">
+        <v>0.03597786124888933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03169078163386207</v>
+        <v>0.01225411365802908</v>
       </c>
       <c r="C25">
-        <v>-0.04733161553104415</v>
+        <v>-0.06131089589647225</v>
       </c>
       <c r="D25">
-        <v>0.06412117374821717</v>
+        <v>0.05109782950566107</v>
       </c>
       <c r="E25">
-        <v>-0.003259515718580925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0113904183485007</v>
+      </c>
+      <c r="F25">
+        <v>0.008240149954216668</v>
+      </c>
+      <c r="G25">
+        <v>-0.01628338238276647</v>
+      </c>
+      <c r="H25">
+        <v>-0.04669533617556861</v>
+      </c>
+      <c r="I25">
+        <v>0.0252218479266727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.009954272817209167</v>
+        <v>0.005746815471283507</v>
       </c>
       <c r="C26">
-        <v>-0.01412652778432784</v>
+        <v>-0.02496911875198173</v>
       </c>
       <c r="D26">
-        <v>0.08168351179339732</v>
+        <v>0.06881254852315845</v>
       </c>
       <c r="E26">
-        <v>0.01297461538917333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02611779431869975</v>
+      </c>
+      <c r="F26">
+        <v>-0.02285062309861526</v>
+      </c>
+      <c r="G26">
+        <v>-0.009931295180699105</v>
+      </c>
+      <c r="H26">
+        <v>-0.08425845194390255</v>
+      </c>
+      <c r="I26">
+        <v>-0.04969628943558941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2354223595746469</v>
+        <v>0.3189964304284614</v>
       </c>
       <c r="C28">
-        <v>0.2239738333716547</v>
+        <v>0.1040874859838904</v>
       </c>
       <c r="D28">
-        <v>0.02319961208409132</v>
+        <v>-0.003914777363700793</v>
       </c>
       <c r="E28">
-        <v>0.06601339842790503</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05453554095023685</v>
+      </c>
+      <c r="F28">
+        <v>-0.03742703938312317</v>
+      </c>
+      <c r="G28">
+        <v>0.02129641741498935</v>
+      </c>
+      <c r="H28">
+        <v>0.009513344241965163</v>
+      </c>
+      <c r="I28">
+        <v>-0.1496881654386775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001585917160231324</v>
+        <v>-0.00348066679939983</v>
       </c>
       <c r="C29">
-        <v>-0.0225645284890022</v>
+        <v>-0.03090263931490557</v>
       </c>
       <c r="D29">
-        <v>0.1020948340865754</v>
+        <v>0.09929279871900475</v>
       </c>
       <c r="E29">
-        <v>0.008406912280454554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04147125887870762</v>
+      </c>
+      <c r="F29">
+        <v>-0.03138301408703465</v>
+      </c>
+      <c r="G29">
+        <v>-0.005980581392812431</v>
+      </c>
+      <c r="H29">
+        <v>-0.1307963576288333</v>
+      </c>
+      <c r="I29">
+        <v>-0.01679783924928629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02807717917782535</v>
+        <v>0.01486870399760841</v>
       </c>
       <c r="C30">
-        <v>-0.05876237686639695</v>
+        <v>-0.08511219122844035</v>
       </c>
       <c r="D30">
-        <v>0.1684495411712525</v>
+        <v>0.1636134083036173</v>
       </c>
       <c r="E30">
-        <v>0.0144321202007517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04033007869640297</v>
+      </c>
+      <c r="F30">
+        <v>-0.03721414359279917</v>
+      </c>
+      <c r="G30">
+        <v>0.03452450366540134</v>
+      </c>
+      <c r="H30">
+        <v>-0.06347459964021844</v>
+      </c>
+      <c r="I30">
+        <v>0.06350006056028493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04786250940642009</v>
+        <v>0.009695332267513783</v>
       </c>
       <c r="C31">
-        <v>-0.08376812232872607</v>
+        <v>-0.09258857663931314</v>
       </c>
       <c r="D31">
-        <v>0.07218987301123542</v>
+        <v>0.04100597521454094</v>
       </c>
       <c r="E31">
-        <v>0.007236759016887847</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008452367416520936</v>
+      </c>
+      <c r="F31">
+        <v>-0.01133349534677139</v>
+      </c>
+      <c r="G31">
+        <v>0.001562872150809382</v>
+      </c>
+      <c r="H31">
+        <v>-0.04704966587580359</v>
+      </c>
+      <c r="I31">
+        <v>-0.07364734908806653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02225324701009811</v>
+        <v>0.008508764667182318</v>
       </c>
       <c r="C32">
-        <v>-0.03168494872420448</v>
+        <v>-0.04431184436476603</v>
       </c>
       <c r="D32">
-        <v>0.1113945407509594</v>
+        <v>0.1109548460850687</v>
       </c>
       <c r="E32">
-        <v>0.06140953400994097</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.006172339873526156</v>
+      </c>
+      <c r="F32">
+        <v>-0.04850170876141392</v>
+      </c>
+      <c r="G32">
+        <v>0.02778393668256551</v>
+      </c>
+      <c r="H32">
+        <v>-0.04662431237451806</v>
+      </c>
+      <c r="I32">
+        <v>-0.08065593347213065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01632420722981743</v>
+        <v>0.00563153240459788</v>
       </c>
       <c r="C33">
-        <v>-0.04208897317473104</v>
+        <v>-0.05712922340843078</v>
       </c>
       <c r="D33">
-        <v>0.1498316649663997</v>
+        <v>0.1272843529706006</v>
       </c>
       <c r="E33">
-        <v>0.03164156493301829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01650448184026305</v>
+      </c>
+      <c r="F33">
+        <v>-0.02651293211390128</v>
+      </c>
+      <c r="G33">
+        <v>0.004084630943745491</v>
+      </c>
+      <c r="H33">
+        <v>-0.07311970011018684</v>
+      </c>
+      <c r="I33">
+        <v>-0.02011502236099256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0268882591383999</v>
+        <v>0.006140862581341245</v>
       </c>
       <c r="C34">
-        <v>-0.05862136164038108</v>
+        <v>-0.06286541652629211</v>
       </c>
       <c r="D34">
-        <v>0.05072244423417746</v>
+        <v>0.03093668709236471</v>
       </c>
       <c r="E34">
-        <v>-0.05036887750928826</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02916078496899729</v>
+      </c>
+      <c r="F34">
+        <v>0.03624582155152368</v>
+      </c>
+      <c r="G34">
+        <v>-0.01017202412269128</v>
+      </c>
+      <c r="H34">
+        <v>-0.06262585778711563</v>
+      </c>
+      <c r="I34">
+        <v>0.01333467888381949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0001518022699410874</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00536528043067469</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01638370427199665</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003938816687907053</v>
+      </c>
+      <c r="F35">
+        <v>-0.001794749284082709</v>
+      </c>
+      <c r="G35">
+        <v>-0.003502738100243947</v>
+      </c>
+      <c r="H35">
+        <v>-0.01548522844445364</v>
+      </c>
+      <c r="I35">
+        <v>0.006815140401276619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.00970371690336313</v>
+        <v>0.006090464539270207</v>
       </c>
       <c r="C36">
-        <v>-0.006670819573729655</v>
+        <v>-0.02027515560684569</v>
       </c>
       <c r="D36">
-        <v>0.09434573428294564</v>
+        <v>0.07828016531083985</v>
       </c>
       <c r="E36">
-        <v>0.03751518053551223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0071344853909943</v>
+      </c>
+      <c r="F36">
+        <v>-0.03625628452222157</v>
+      </c>
+      <c r="G36">
+        <v>-0.001539782488746243</v>
+      </c>
+      <c r="H36">
+        <v>-0.06546101749260511</v>
+      </c>
+      <c r="I36">
+        <v>-0.03619663546965549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.007580533549105202</v>
+        <v>0.01349088042846843</v>
       </c>
       <c r="C38">
-        <v>-0.006667849216071888</v>
+        <v>-0.01619334010631812</v>
       </c>
       <c r="D38">
-        <v>0.08975093912210601</v>
+        <v>0.08618028046848063</v>
       </c>
       <c r="E38">
-        <v>0.005196800175921626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.008863490180798577</v>
+      </c>
+      <c r="F38">
+        <v>0.00829373732590785</v>
+      </c>
+      <c r="G38">
+        <v>0.01613278604520699</v>
+      </c>
+      <c r="H38">
+        <v>-0.05709883138290136</v>
+      </c>
+      <c r="I38">
+        <v>-0.036410480512721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02311259648940215</v>
+        <v>0.005625626689613129</v>
       </c>
       <c r="C39">
-        <v>-0.05655339049058416</v>
+        <v>-0.07526634777459254</v>
       </c>
       <c r="D39">
-        <v>0.117514194682138</v>
+        <v>0.1061649377785422</v>
       </c>
       <c r="E39">
-        <v>-0.02411468073751239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04886325945093361</v>
+      </c>
+      <c r="F39">
+        <v>0.004661671003732572</v>
+      </c>
+      <c r="G39">
+        <v>-0.01340658939616309</v>
+      </c>
+      <c r="H39">
+        <v>-0.1062106607956785</v>
+      </c>
+      <c r="I39">
+        <v>0.07036321934372058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01228209825742003</v>
+        <v>0.01064309196862108</v>
       </c>
       <c r="C40">
-        <v>-0.01667076199611666</v>
+        <v>-0.02548136518847263</v>
       </c>
       <c r="D40">
-        <v>0.1171941620990684</v>
+        <v>0.09749392543952078</v>
       </c>
       <c r="E40">
-        <v>-0.02699139316677772</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04288238145369468</v>
+      </c>
+      <c r="F40">
+        <v>0.02268506652272462</v>
+      </c>
+      <c r="G40">
+        <v>0.06554169384567189</v>
+      </c>
+      <c r="H40">
+        <v>-0.07906825450178839</v>
+      </c>
+      <c r="I40">
+        <v>-0.06326551545414436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01274262907748258</v>
+        <v>0.01185002731850604</v>
       </c>
       <c r="C41">
-        <v>-0.007344312565145764</v>
+        <v>-0.01588051638644661</v>
       </c>
       <c r="D41">
-        <v>0.05949408497044264</v>
+        <v>0.04167289550298997</v>
       </c>
       <c r="E41">
-        <v>0.02856958011316917</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02056566741600428</v>
+      </c>
+      <c r="F41">
+        <v>-0.01686845707086285</v>
+      </c>
+      <c r="G41">
+        <v>0.009818710915672595</v>
+      </c>
+      <c r="H41">
+        <v>-0.04416483413427053</v>
+      </c>
+      <c r="I41">
+        <v>-0.04940370865159407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007654038401093975</v>
+        <v>0.00606384830813878</v>
       </c>
       <c r="C43">
-        <v>-0.007551141400225593</v>
+        <v>-0.01478626327550148</v>
       </c>
       <c r="D43">
-        <v>0.07089333101703835</v>
+        <v>0.05162221464048385</v>
       </c>
       <c r="E43">
-        <v>0.0180451875606392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003997644313072654</v>
+      </c>
+      <c r="F43">
+        <v>-0.01451362958906217</v>
+      </c>
+      <c r="G43">
+        <v>0.009352911065771722</v>
+      </c>
+      <c r="H43">
+        <v>-0.06387695080609863</v>
+      </c>
+      <c r="I43">
+        <v>-0.03590790208537616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01828154199528477</v>
+        <v>0.009789777575612639</v>
       </c>
       <c r="C44">
-        <v>-0.02499227681259539</v>
+        <v>-0.04561514138196883</v>
       </c>
       <c r="D44">
-        <v>0.1159968215456599</v>
+        <v>0.1194934186223379</v>
       </c>
       <c r="E44">
-        <v>0.04121936033152266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02212874531279074</v>
+      </c>
+      <c r="F44">
+        <v>-0.02808470752961275</v>
+      </c>
+      <c r="G44">
+        <v>0.01944108776540248</v>
+      </c>
+      <c r="H44">
+        <v>-0.05200226567996354</v>
+      </c>
+      <c r="I44">
+        <v>0.05697634594079776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.009777990185911091</v>
+        <v>-0.001834087755478137</v>
       </c>
       <c r="C46">
-        <v>-0.02818316709908322</v>
+        <v>-0.03903703070045928</v>
       </c>
       <c r="D46">
-        <v>0.09799602276362458</v>
+        <v>0.08403041676502802</v>
       </c>
       <c r="E46">
-        <v>0.01584272238651822</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02568178478745948</v>
+      </c>
+      <c r="F46">
+        <v>-0.02828435923150208</v>
+      </c>
+      <c r="G46">
+        <v>0.008639063562448342</v>
+      </c>
+      <c r="H46">
+        <v>-0.1414023557529691</v>
+      </c>
+      <c r="I46">
+        <v>-0.02123104138239247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08997879126757334</v>
+        <v>0.03523995525668511</v>
       </c>
       <c r="C47">
-        <v>-0.101235244040522</v>
+        <v>-0.1240342398588082</v>
       </c>
       <c r="D47">
-        <v>0.06085434401736022</v>
+        <v>0.02378803909671851</v>
       </c>
       <c r="E47">
-        <v>0.02265479339982818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02069871115802269</v>
+      </c>
+      <c r="F47">
+        <v>0.0142733531722906</v>
+      </c>
+      <c r="G47">
+        <v>-0.05187707205451265</v>
+      </c>
+      <c r="H47">
+        <v>-0.03751264010896638</v>
+      </c>
+      <c r="I47">
+        <v>-0.1405755330460935</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008027004172876766</v>
+        <v>0.004417671248893893</v>
       </c>
       <c r="C48">
-        <v>-0.01585970952012793</v>
+        <v>-0.02818013924435336</v>
       </c>
       <c r="D48">
-        <v>0.09718449305642526</v>
+        <v>0.0819788442419863</v>
       </c>
       <c r="E48">
-        <v>0.04970852024770748</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003856532305176954</v>
+      </c>
+      <c r="F48">
+        <v>-0.04012216133677819</v>
+      </c>
+      <c r="G48">
+        <v>0.001998615612615</v>
+      </c>
+      <c r="H48">
+        <v>-0.09679105012423754</v>
+      </c>
+      <c r="I48">
+        <v>-0.02366666757145424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04448884601552196</v>
+        <v>0.01293540914553696</v>
       </c>
       <c r="C50">
-        <v>-0.06019108649693285</v>
+        <v>-0.07461974436745238</v>
       </c>
       <c r="D50">
-        <v>0.07113397900152664</v>
+        <v>0.04669643123346971</v>
       </c>
       <c r="E50">
-        <v>0.004174660312545889</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.001429194590325131</v>
+      </c>
+      <c r="F50">
+        <v>-0.006357915452549629</v>
+      </c>
+      <c r="G50">
+        <v>0.02125063355635762</v>
+      </c>
+      <c r="H50">
+        <v>-0.03613135823282591</v>
+      </c>
+      <c r="I50">
+        <v>-0.1261107921156079</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00386199242594987</v>
+        <v>0.001774048526436565</v>
       </c>
       <c r="C51">
-        <v>-0.003993778694067611</v>
+        <v>-0.01626939846163774</v>
       </c>
       <c r="D51">
-        <v>0.05933284830120198</v>
+        <v>0.06634718631842224</v>
       </c>
       <c r="E51">
-        <v>0.001615991923686232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03668092736203667</v>
+      </c>
+      <c r="F51">
+        <v>-0.03751870378750179</v>
+      </c>
+      <c r="G51">
+        <v>0.03607674260974252</v>
+      </c>
+      <c r="H51">
+        <v>-0.05065565268275181</v>
+      </c>
+      <c r="I51">
+        <v>-0.01473622917959425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1170566383721936</v>
+        <v>0.05934243465467429</v>
       </c>
       <c r="C53">
-        <v>-0.1159352717113519</v>
+        <v>-0.1566146792630836</v>
       </c>
       <c r="D53">
-        <v>0.02051784128533346</v>
+        <v>-0.01441718261671125</v>
       </c>
       <c r="E53">
-        <v>0.0546760035901868</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03437393872520574</v>
+      </c>
+      <c r="F53">
+        <v>-0.0460151166944398</v>
+      </c>
+      <c r="G53">
+        <v>0.006489791171237803</v>
+      </c>
+      <c r="H53">
+        <v>-0.003052021962476119</v>
+      </c>
+      <c r="I53">
+        <v>-0.08334418022133952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01850535187652627</v>
+        <v>0.009724465035716013</v>
       </c>
       <c r="C54">
-        <v>-0.02251172872874271</v>
+        <v>-0.04055115974727092</v>
       </c>
       <c r="D54">
-        <v>0.1046652528999109</v>
+        <v>0.08321677732420353</v>
       </c>
       <c r="E54">
-        <v>-0.003168734421808413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01154549698360743</v>
+      </c>
+      <c r="F54">
+        <v>0.003352137410119153</v>
+      </c>
+      <c r="G54">
+        <v>0.02116640547165144</v>
+      </c>
+      <c r="H54">
+        <v>-0.09624492621868565</v>
+      </c>
+      <c r="I54">
+        <v>-0.04860878207511548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1033440964438303</v>
+        <v>0.04633303563250197</v>
       </c>
       <c r="C55">
-        <v>-0.09831598679737071</v>
+        <v>-0.1291932395874782</v>
       </c>
       <c r="D55">
-        <v>0.008803491468276142</v>
+        <v>-0.02594006078700392</v>
       </c>
       <c r="E55">
-        <v>0.01196509640859262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001499585955912858</v>
+      </c>
+      <c r="F55">
+        <v>-0.01225641864024204</v>
+      </c>
+      <c r="G55">
+        <v>0.01402245382024086</v>
+      </c>
+      <c r="H55">
+        <v>-0.01029852407584543</v>
+      </c>
+      <c r="I55">
+        <v>-0.08811269594096789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.144529454418574</v>
+        <v>0.06421863239998576</v>
       </c>
       <c r="C56">
-        <v>-0.1306802417631179</v>
+        <v>-0.1878503695095815</v>
       </c>
       <c r="D56">
-        <v>0.007241770421238975</v>
+        <v>-0.02336185888449766</v>
       </c>
       <c r="E56">
-        <v>0.01313524983223157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03382541124779639</v>
+      </c>
+      <c r="F56">
+        <v>-0.01303746185589915</v>
+      </c>
+      <c r="G56">
+        <v>0.06293353215110961</v>
+      </c>
+      <c r="H56">
+        <v>-0.003643671273002349</v>
+      </c>
+      <c r="I56">
+        <v>-0.1083652975342533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.001294895892809374</v>
+        <v>0.003656530225268798</v>
       </c>
       <c r="C58">
-        <v>-0.01214404678874546</v>
+        <v>-0.04894501920698344</v>
       </c>
       <c r="D58">
-        <v>0.2285540044654347</v>
+        <v>0.2877066145966162</v>
       </c>
       <c r="E58">
-        <v>0.07104197694898765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02046787449963059</v>
+      </c>
+      <c r="F58">
+        <v>-0.09475579906575451</v>
+      </c>
+      <c r="G58">
+        <v>0.1292403125921302</v>
+      </c>
+      <c r="H58">
+        <v>0.0915298119956752</v>
+      </c>
+      <c r="I58">
+        <v>0.05948089657816972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.164527844230464</v>
+        <v>0.2450349823324805</v>
       </c>
       <c r="C59">
-        <v>0.1606899047814401</v>
+        <v>0.07093695912028959</v>
       </c>
       <c r="D59">
-        <v>0.05068296283738315</v>
+        <v>0.06066296139288646</v>
       </c>
       <c r="E59">
-        <v>0.03761190579701757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03419069826292453</v>
+      </c>
+      <c r="F59">
+        <v>-0.01493536892862102</v>
+      </c>
+      <c r="G59">
+        <v>0.003325006798307085</v>
+      </c>
+      <c r="H59">
+        <v>0.0111443950633331</v>
+      </c>
+      <c r="I59">
+        <v>-0.0422990281963015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1990244950814389</v>
+        <v>0.1515904272922388</v>
       </c>
       <c r="C60">
-        <v>-0.0839276358814644</v>
+        <v>-0.1681339826432884</v>
       </c>
       <c r="D60">
-        <v>0.1542243064603211</v>
+        <v>0.07849000435056545</v>
       </c>
       <c r="E60">
-        <v>-0.1863438191956347</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2282835501010816</v>
+      </c>
+      <c r="F60">
+        <v>0.1638045668631812</v>
+      </c>
+      <c r="G60">
+        <v>-0.2259160958612136</v>
+      </c>
+      <c r="H60">
+        <v>0.2278395079517602</v>
+      </c>
+      <c r="I60">
+        <v>0.02944521809763298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03332336181048046</v>
+        <v>0.01246021466086501</v>
       </c>
       <c r="C61">
-        <v>-0.05284572078783255</v>
+        <v>-0.07198287823685731</v>
       </c>
       <c r="D61">
-        <v>0.106933112941667</v>
+        <v>0.08319769851491829</v>
       </c>
       <c r="E61">
-        <v>-0.01221350609354562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03645303270431247</v>
+      </c>
+      <c r="F61">
+        <v>0.01414307652322568</v>
+      </c>
+      <c r="G61">
+        <v>-0.02861138583636585</v>
+      </c>
+      <c r="H61">
+        <v>-0.09582084160113964</v>
+      </c>
+      <c r="I61">
+        <v>0.02285826454057012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01010715872899535</v>
+        <v>0.00117587419752799</v>
       </c>
       <c r="C63">
-        <v>-0.02649099012946081</v>
+        <v>-0.03622728197644551</v>
       </c>
       <c r="D63">
-        <v>0.09334097664175178</v>
+        <v>0.07074618408165671</v>
       </c>
       <c r="E63">
-        <v>0.009956950937582218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02831468748597229</v>
+      </c>
+      <c r="F63">
+        <v>-0.02218861909844518</v>
+      </c>
+      <c r="G63">
+        <v>0.007458107520912445</v>
+      </c>
+      <c r="H63">
+        <v>-0.06615236929564602</v>
+      </c>
+      <c r="I63">
+        <v>-0.005360501683555664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06599407292692161</v>
+        <v>0.02214417133506412</v>
       </c>
       <c r="C64">
-        <v>-0.07788931933364748</v>
+        <v>-0.1037591930342741</v>
       </c>
       <c r="D64">
-        <v>0.04057945504395246</v>
+        <v>0.02667581422253352</v>
       </c>
       <c r="E64">
-        <v>0.01971605223820479</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02713760655135203</v>
+      </c>
+      <c r="F64">
+        <v>-0.02362522941187009</v>
+      </c>
+      <c r="G64">
+        <v>-0.05343001292737955</v>
+      </c>
+      <c r="H64">
+        <v>-0.1092393805016703</v>
+      </c>
+      <c r="I64">
+        <v>0.06744068674567018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02751679395526934</v>
+        <v>0.02062187073946406</v>
       </c>
       <c r="C65">
-        <v>-0.01483392911559548</v>
+        <v>-0.03951041035092549</v>
       </c>
       <c r="D65">
-        <v>0.1190536258538102</v>
+        <v>0.1187927457053032</v>
       </c>
       <c r="E65">
-        <v>-5.485988245831252e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04543806070635244</v>
+      </c>
+      <c r="F65">
+        <v>-0.008571798421857343</v>
+      </c>
+      <c r="G65">
+        <v>-0.01625427588855741</v>
+      </c>
+      <c r="H65">
+        <v>-0.05105505141961009</v>
+      </c>
+      <c r="I65">
+        <v>-0.008781517177862522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02611134922718545</v>
+        <v>0.003854082147467422</v>
       </c>
       <c r="C66">
-        <v>-0.06370275334924676</v>
+        <v>-0.09009986634389293</v>
       </c>
       <c r="D66">
-        <v>0.1215572542405976</v>
+        <v>0.1293985217236824</v>
       </c>
       <c r="E66">
-        <v>-0.02682124802097903</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03531874307559251</v>
+      </c>
+      <c r="F66">
+        <v>0.01303234839899392</v>
+      </c>
+      <c r="G66">
+        <v>0.004035880215300323</v>
+      </c>
+      <c r="H66">
+        <v>-0.0611703377578962</v>
+      </c>
+      <c r="I66">
+        <v>0.0756774003590955</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02779884058015105</v>
+        <v>0.02426517906031602</v>
       </c>
       <c r="C67">
-        <v>-0.017487791877322</v>
+        <v>-0.02826749955767212</v>
       </c>
       <c r="D67">
-        <v>0.04409137949243587</v>
+        <v>0.03575822357292748</v>
       </c>
       <c r="E67">
-        <v>-0.01866605380075192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0055656188064958</v>
+      </c>
+      <c r="F67">
+        <v>0.03014872569338265</v>
+      </c>
+      <c r="G67">
+        <v>0.003827800868460537</v>
+      </c>
+      <c r="H67">
+        <v>-0.0639319058649841</v>
+      </c>
+      <c r="I67">
+        <v>-0.02418381647372535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1903739764872213</v>
+        <v>0.267552547599332</v>
       </c>
       <c r="C68">
-        <v>0.1760778542388405</v>
+        <v>0.07229930166903563</v>
       </c>
       <c r="D68">
-        <v>0.03202231765474194</v>
+        <v>0.03367241848862689</v>
       </c>
       <c r="E68">
-        <v>0.01144257362481032</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005858632147235008</v>
+      </c>
+      <c r="F68">
+        <v>-0.02851554089285433</v>
+      </c>
+      <c r="G68">
+        <v>0.06509165688127032</v>
+      </c>
+      <c r="H68">
+        <v>0.03780083210690999</v>
+      </c>
+      <c r="I68">
+        <v>-0.09944711823732928</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06884791122321909</v>
+        <v>0.02089767505379041</v>
       </c>
       <c r="C69">
-        <v>-0.1124857602579538</v>
+        <v>-0.1196871464726616</v>
       </c>
       <c r="D69">
-        <v>0.08333013596450516</v>
+        <v>0.03665559864297267</v>
       </c>
       <c r="E69">
-        <v>0.0077609225400875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.002190315396849725</v>
+      </c>
+      <c r="F69">
+        <v>0.01597036948252245</v>
+      </c>
+      <c r="G69">
+        <v>-0.0390434863554243</v>
+      </c>
+      <c r="H69">
+        <v>-0.0349606493882496</v>
+      </c>
+      <c r="I69">
+        <v>-0.09538066208445199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.1963001406784983</v>
+        <v>0.269243800696998</v>
       </c>
       <c r="C71">
-        <v>0.1958280630654573</v>
+        <v>0.08766725634023782</v>
       </c>
       <c r="D71">
-        <v>0.02845001448142104</v>
+        <v>0.02354313930537822</v>
       </c>
       <c r="E71">
-        <v>0.0132797947349921</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007667999357968474</v>
+      </c>
+      <c r="F71">
+        <v>-0.01451602646827692</v>
+      </c>
+      <c r="G71">
+        <v>0.03468511143673741</v>
+      </c>
+      <c r="H71">
+        <v>-0.02017226513883699</v>
+      </c>
+      <c r="I71">
+        <v>-0.166112357145222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.113398983491143</v>
+        <v>0.06044026082964429</v>
       </c>
       <c r="C72">
-        <v>-0.06373321876969203</v>
+        <v>-0.1211421121251107</v>
       </c>
       <c r="D72">
-        <v>0.09826914215494803</v>
+        <v>0.06453625782364759</v>
       </c>
       <c r="E72">
-        <v>-0.05071461668595436</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08671578431437957</v>
+      </c>
+      <c r="F72">
+        <v>0.0136439116492498</v>
+      </c>
+      <c r="G72">
+        <v>-0.02303191631451534</v>
+      </c>
+      <c r="H72">
+        <v>-0.05662771472769964</v>
+      </c>
+      <c r="I72">
+        <v>0.05131265666525887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1845890487183355</v>
+        <v>0.1375207964059907</v>
       </c>
       <c r="C73">
-        <v>-0.04972648661357571</v>
+        <v>-0.1416293410367129</v>
       </c>
       <c r="D73">
-        <v>0.2259458531800142</v>
+        <v>0.09486949288163499</v>
       </c>
       <c r="E73">
-        <v>-0.2731099537514089</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3761547844288406</v>
+      </c>
+      <c r="F73">
+        <v>0.2471207020573239</v>
+      </c>
+      <c r="G73">
+        <v>-0.4235607656973439</v>
+      </c>
+      <c r="H73">
+        <v>0.1734799886732896</v>
+      </c>
+      <c r="I73">
+        <v>0.07736757216709518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1162372883480567</v>
+        <v>0.05271951911671505</v>
       </c>
       <c r="C74">
-        <v>-0.1069895197383374</v>
+        <v>-0.1473259205323679</v>
       </c>
       <c r="D74">
-        <v>-0.01978471217930754</v>
+        <v>-0.04085217299662965</v>
       </c>
       <c r="E74">
-        <v>0.04138811408249522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01149556437164915</v>
+      </c>
+      <c r="F74">
+        <v>-0.04033462189124031</v>
+      </c>
+      <c r="G74">
+        <v>0.005801348630571579</v>
+      </c>
+      <c r="H74">
+        <v>0.009907950697132743</v>
+      </c>
+      <c r="I74">
+        <v>-0.111231952950245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2499200720487881</v>
+        <v>0.1217060445579155</v>
       </c>
       <c r="C75">
-        <v>-0.1795230743912255</v>
+        <v>-0.268660019750557</v>
       </c>
       <c r="D75">
-        <v>-0.1044821798332481</v>
+        <v>-0.13095614699768</v>
       </c>
       <c r="E75">
-        <v>-0.008377549600074705</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08988825113981361</v>
+      </c>
+      <c r="F75">
+        <v>0.03820975251899894</v>
+      </c>
+      <c r="G75">
+        <v>0.1042907675620488</v>
+      </c>
+      <c r="H75">
+        <v>-0.007737818073999208</v>
+      </c>
+      <c r="I75">
+        <v>-0.08561979194658184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1516764824911594</v>
+        <v>0.06929198964371021</v>
       </c>
       <c r="C76">
-        <v>-0.1268280408978012</v>
+        <v>-0.1823666657412505</v>
       </c>
       <c r="D76">
-        <v>0.02245145466106369</v>
+        <v>-0.02950575720307435</v>
       </c>
       <c r="E76">
-        <v>0.01256024944460751</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02724752264048603</v>
+      </c>
+      <c r="F76">
+        <v>-0.00326680457638547</v>
+      </c>
+      <c r="G76">
+        <v>0.04640403498120273</v>
+      </c>
+      <c r="H76">
+        <v>-0.03607838990839525</v>
+      </c>
+      <c r="I76">
+        <v>-0.1134089333065813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01619233996455069</v>
+        <v>0.0257993746341928</v>
       </c>
       <c r="C77">
-        <v>-0.07703074811939031</v>
+        <v>-0.09411287178593485</v>
       </c>
       <c r="D77">
-        <v>0.07144091136291966</v>
+        <v>0.2741723287419305</v>
       </c>
       <c r="E77">
-        <v>0.2176439919160871</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7675842141498461</v>
+      </c>
+      <c r="F77">
+        <v>0.3208184788475673</v>
+      </c>
+      <c r="G77">
+        <v>-0.2772100835413073</v>
+      </c>
+      <c r="H77">
+        <v>0.240496367448338</v>
+      </c>
+      <c r="I77">
+        <v>-0.03007777696002104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03095365211910732</v>
+        <v>0.01434560611208294</v>
       </c>
       <c r="C78">
-        <v>-0.06476423046124859</v>
+        <v>-0.08536322601971966</v>
       </c>
       <c r="D78">
-        <v>0.1529295929626917</v>
+        <v>0.137003119865821</v>
       </c>
       <c r="E78">
-        <v>0.03320165616511173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04656556292208741</v>
+      </c>
+      <c r="F78">
+        <v>-0.04848772130379303</v>
+      </c>
+      <c r="G78">
+        <v>0.03584932248545115</v>
+      </c>
+      <c r="H78">
+        <v>-0.02249561548438703</v>
+      </c>
+      <c r="I78">
+        <v>-0.06531248597531068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.101387450880569</v>
+        <v>0.0386380312207375</v>
       </c>
       <c r="C79">
-        <v>-0.1597137011949345</v>
+        <v>-0.183642862437711</v>
       </c>
       <c r="D79">
-        <v>-0.0860344314895972</v>
+        <v>-0.06933513781044612</v>
       </c>
       <c r="E79">
-        <v>0.8041455827282546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.116983319671477</v>
+      </c>
+      <c r="F79">
+        <v>-0.8078527699041606</v>
+      </c>
+      <c r="G79">
+        <v>-0.3782210570040311</v>
+      </c>
+      <c r="H79">
+        <v>0.2357981792651392</v>
+      </c>
+      <c r="I79">
+        <v>0.1490664058721616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007567938673322579</v>
+        <v>-0.0004193386765739937</v>
       </c>
       <c r="C80">
-        <v>-0.0462638071750615</v>
+        <v>-0.04636934991643923</v>
       </c>
       <c r="D80">
-        <v>0.04798117190276044</v>
+        <v>0.04346881457883549</v>
       </c>
       <c r="E80">
-        <v>-0.007928384490225792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02560385365291243</v>
+      </c>
+      <c r="F80">
+        <v>-0.008406153614138118</v>
+      </c>
+      <c r="G80">
+        <v>0.02748182602484368</v>
+      </c>
+      <c r="H80">
+        <v>-0.01792428693970922</v>
+      </c>
+      <c r="I80">
+        <v>-0.05764463396693957</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1283614477179242</v>
+        <v>0.04970276345563868</v>
       </c>
       <c r="C81">
-        <v>-0.1235583006393674</v>
+        <v>-0.1653055753801701</v>
       </c>
       <c r="D81">
-        <v>-0.0630453489525869</v>
+        <v>-0.07563890571950546</v>
       </c>
       <c r="E81">
-        <v>0.06947964835197019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.07104212557208854</v>
+      </c>
+      <c r="F81">
+        <v>-0.0455172189608859</v>
+      </c>
+      <c r="G81">
+        <v>0.0458921080786266</v>
+      </c>
+      <c r="H81">
+        <v>-0.06787794458352572</v>
+      </c>
+      <c r="I81">
+        <v>-0.1366078427818237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2740156877709556</v>
+        <v>0.107609628700901</v>
       </c>
       <c r="C82">
-        <v>-0.2732289778467508</v>
+        <v>-0.3281002005713622</v>
       </c>
       <c r="D82">
-        <v>-0.2085282975120343</v>
+        <v>-0.2254856401571872</v>
       </c>
       <c r="E82">
-        <v>-0.1178202731913048</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04704659396844083</v>
+      </c>
+      <c r="F82">
+        <v>0.1293432355957561</v>
+      </c>
+      <c r="G82">
+        <v>0.06860458491599365</v>
+      </c>
+      <c r="H82">
+        <v>-0.0960337681476066</v>
+      </c>
+      <c r="I82">
+        <v>-0.04147194577689525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.00290336880780017</v>
+        <v>-0.01170089143191847</v>
       </c>
       <c r="C83">
-        <v>-0.05250582666298224</v>
+        <v>-0.03486415859882591</v>
       </c>
       <c r="D83">
-        <v>0.01414438684731259</v>
+        <v>0.03884786503828314</v>
       </c>
       <c r="E83">
-        <v>0.05167904557019267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08935167994504295</v>
+      </c>
+      <c r="F83">
+        <v>-0.02492533483694928</v>
+      </c>
+      <c r="G83">
+        <v>0.03462290807850991</v>
+      </c>
+      <c r="H83">
+        <v>-0.001822461984072392</v>
+      </c>
+      <c r="I83">
+        <v>-0.1353224238123713</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.001229167199527017</v>
+        <v>-0.00267484585677779</v>
       </c>
       <c r="C84">
-        <v>0.002227004103219826</v>
+        <v>-0.01602991891427961</v>
       </c>
       <c r="D84">
-        <v>0.004361763262163701</v>
+        <v>0.04049148675405115</v>
       </c>
       <c r="E84">
-        <v>0.001039398568263356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.009354480032182887</v>
+      </c>
+      <c r="F84">
+        <v>-0.01715971645782279</v>
+      </c>
+      <c r="G84">
+        <v>0.04950084214627763</v>
+      </c>
+      <c r="H84">
+        <v>-0.002598752237374215</v>
+      </c>
+      <c r="I84">
+        <v>0.03263902986902425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1521064945176749</v>
+        <v>0.06433624822314864</v>
       </c>
       <c r="C85">
-        <v>-0.1290278393055173</v>
+        <v>-0.1838367431502627</v>
       </c>
       <c r="D85">
-        <v>-0.03918440636382034</v>
+        <v>-0.08814329539115445</v>
       </c>
       <c r="E85">
-        <v>0.0284563015339933</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.001700649435967613</v>
+      </c>
+      <c r="F85">
+        <v>-0.07803065801297486</v>
+      </c>
+      <c r="G85">
+        <v>0.03378549113063389</v>
+      </c>
+      <c r="H85">
+        <v>-0.007928871888757476</v>
+      </c>
+      <c r="I85">
+        <v>-0.09297974693657801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01411612522411122</v>
+        <v>0.01076328759303891</v>
       </c>
       <c r="C86">
-        <v>-0.01209705529504963</v>
+        <v>-0.03024359195561025</v>
       </c>
       <c r="D86">
-        <v>0.08323076799040716</v>
+        <v>0.1080906324394721</v>
       </c>
       <c r="E86">
-        <v>0.04724379317124789</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04118062778492032</v>
+      </c>
+      <c r="F86">
+        <v>0.01372565026846871</v>
+      </c>
+      <c r="G86">
+        <v>-0.02623693594022583</v>
+      </c>
+      <c r="H86">
+        <v>-0.004190445458379569</v>
+      </c>
+      <c r="I86">
+        <v>-0.09230216055611756</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01672532898795332</v>
+        <v>0.009647640247558514</v>
       </c>
       <c r="C87">
-        <v>-0.02733282156554709</v>
+        <v>-0.0552748556413854</v>
       </c>
       <c r="D87">
-        <v>0.132436792112317</v>
+        <v>0.1466623641515251</v>
       </c>
       <c r="E87">
-        <v>0.04222905375801295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.003119816710187626</v>
+      </c>
+      <c r="F87">
+        <v>-0.04109530364731177</v>
+      </c>
+      <c r="G87">
+        <v>0.06667014072259218</v>
+      </c>
+      <c r="H87">
+        <v>-0.0292509138294865</v>
+      </c>
+      <c r="I87">
+        <v>0.03667752315079715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06039875078985356</v>
+        <v>0.03060701323936323</v>
       </c>
       <c r="C88">
-        <v>-0.04466436343455623</v>
+        <v>-0.06845793919924001</v>
       </c>
       <c r="D88">
-        <v>0.03356720824519347</v>
+        <v>0.006030622972021839</v>
       </c>
       <c r="E88">
-        <v>0.02884392977398407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0139173060483035</v>
+      </c>
+      <c r="F88">
+        <v>-0.02157963998790518</v>
+      </c>
+      <c r="G88">
+        <v>-0.0009458313084916652</v>
+      </c>
+      <c r="H88">
+        <v>-0.03215557749061722</v>
+      </c>
+      <c r="I88">
+        <v>-0.04716657379056925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.2935885223124535</v>
+        <v>0.4117911891699415</v>
       </c>
       <c r="C89">
-        <v>0.3559788599855366</v>
+        <v>0.1716608251030324</v>
       </c>
       <c r="D89">
-        <v>0.02442031969932396</v>
+        <v>0.02907957531998129</v>
       </c>
       <c r="E89">
-        <v>0.09606859697850174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02198249254291438</v>
+      </c>
+      <c r="F89">
+        <v>-0.07275149414230123</v>
+      </c>
+      <c r="G89">
+        <v>0.04474583575060786</v>
+      </c>
+      <c r="H89">
+        <v>-0.1415974241101583</v>
+      </c>
+      <c r="I89">
+        <v>0.3546432398403596</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2342611410765489</v>
+        <v>0.3149968383847317</v>
       </c>
       <c r="C90">
-        <v>0.2612107661690115</v>
+        <v>0.1141960916784066</v>
       </c>
       <c r="D90">
-        <v>0.03437925594628065</v>
+        <v>0.036592372728065</v>
       </c>
       <c r="E90">
-        <v>-0.009020546127745296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01387818462706393</v>
+      </c>
+      <c r="F90">
+        <v>0.01899355075569746</v>
+      </c>
+      <c r="G90">
+        <v>0.06285702795105699</v>
+      </c>
+      <c r="H90">
+        <v>0.02179605811625382</v>
+      </c>
+      <c r="I90">
+        <v>-0.08027971863384928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1686777087156194</v>
+        <v>0.0737498736028607</v>
       </c>
       <c r="C91">
-        <v>-0.1742616779111522</v>
+        <v>-0.211364942122446</v>
       </c>
       <c r="D91">
-        <v>-0.08765591255714317</v>
+        <v>-0.1053776481127988</v>
       </c>
       <c r="E91">
-        <v>0.1009201592782581</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06718449174125135</v>
+      </c>
+      <c r="F91">
+        <v>-0.06942963119092102</v>
+      </c>
+      <c r="G91">
+        <v>0.01255174320405124</v>
+      </c>
+      <c r="H91">
+        <v>-0.010801072092886</v>
+      </c>
+      <c r="I91">
+        <v>-0.1187970526857099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.216137583707261</v>
+        <v>0.3345695183029517</v>
       </c>
       <c r="C92">
-        <v>0.2765042939335415</v>
+        <v>0.1503360534016364</v>
       </c>
       <c r="D92">
-        <v>-0.04908351919970092</v>
+        <v>-0.002604458282597039</v>
       </c>
       <c r="E92">
-        <v>0.05713252885504892</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0751562195030795</v>
+      </c>
+      <c r="F92">
+        <v>-0.02075872345678255</v>
+      </c>
+      <c r="G92">
+        <v>0.03288446148573004</v>
+      </c>
+      <c r="H92">
+        <v>-0.02717390751849377</v>
+      </c>
+      <c r="I92">
+        <v>0.1641000168600663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2586557731154921</v>
+        <v>0.3338287347484169</v>
       </c>
       <c r="C93">
-        <v>0.2730636473437783</v>
+        <v>0.1214958241453119</v>
       </c>
       <c r="D93">
-        <v>0.01664362353864233</v>
+        <v>-0.01065399984738519</v>
       </c>
       <c r="E93">
-        <v>0.005425566434641754</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02837369124784879</v>
+      </c>
+      <c r="F93">
+        <v>-0.01216734268742289</v>
+      </c>
+      <c r="G93">
+        <v>-0.01423155320989014</v>
+      </c>
+      <c r="H93">
+        <v>-0.002183162952817432</v>
+      </c>
+      <c r="I93">
+        <v>-0.09813701364700857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3149246543257881</v>
+        <v>0.1439743166676007</v>
       </c>
       <c r="C94">
-        <v>-0.2441004085826895</v>
+        <v>-0.3545784200020212</v>
       </c>
       <c r="D94">
-        <v>-0.3686362195537011</v>
+        <v>-0.3443666127905473</v>
       </c>
       <c r="E94">
-        <v>-0.1846411350716875</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04663263344112013</v>
+      </c>
+      <c r="F94">
+        <v>0.1085451038931625</v>
+      </c>
+      <c r="G94">
+        <v>0.3132796336715367</v>
+      </c>
+      <c r="H94">
+        <v>0.04514851413548691</v>
+      </c>
+      <c r="I94">
+        <v>0.389355873197744</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01810884788573391</v>
+        <v>0.01761390567829599</v>
       </c>
       <c r="C95">
-        <v>-0.03614530224499934</v>
+        <v>-0.05961160409349547</v>
       </c>
       <c r="D95">
-        <v>0.06510893225796321</v>
+        <v>0.1112957470406891</v>
       </c>
       <c r="E95">
-        <v>0.09480087701010376</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1905193538790799</v>
+      </c>
+      <c r="F95">
+        <v>0.07488086239748877</v>
+      </c>
+      <c r="G95">
+        <v>-0.1485054428725406</v>
+      </c>
+      <c r="H95">
+        <v>-0.3641989803856324</v>
+      </c>
+      <c r="I95">
+        <v>0.5064916083828928</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0003825148981644729</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001213510333993722</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.000381863775888956</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001090685202358839</v>
+      </c>
+      <c r="F97">
+        <v>0.001432834863428205</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004176477013857278</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003875976642049349</v>
+      </c>
+      <c r="I97">
+        <v>0.0006388170620790696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1535431702595718</v>
+        <v>0.1153849442138735</v>
       </c>
       <c r="C98">
-        <v>-0.06757488260069577</v>
+        <v>-0.1421870450285087</v>
       </c>
       <c r="D98">
-        <v>0.1148575103514395</v>
+        <v>0.05737354963442236</v>
       </c>
       <c r="E98">
-        <v>-0.2024046106647381</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2671549535563035</v>
+      </c>
+      <c r="F98">
+        <v>0.1724603584584106</v>
+      </c>
+      <c r="G98">
+        <v>-0.2611030740030809</v>
+      </c>
+      <c r="H98">
+        <v>0.1743600935804851</v>
+      </c>
+      <c r="I98">
+        <v>0.04014174661149269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002009612981934153</v>
+        <v>-0.003104354332139627</v>
       </c>
       <c r="C101">
-        <v>-0.02197548557963539</v>
+        <v>-0.03035514083054766</v>
       </c>
       <c r="D101">
-        <v>0.1022799846475472</v>
+        <v>0.09891018581807465</v>
       </c>
       <c r="E101">
-        <v>0.009647951425101541</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.04076075608761315</v>
+      </c>
+      <c r="F101">
+        <v>-0.03184189133071712</v>
+      </c>
+      <c r="G101">
+        <v>-0.005312822851990964</v>
+      </c>
+      <c r="H101">
+        <v>-0.1320187705074941</v>
+      </c>
+      <c r="I101">
+        <v>-0.01666733628246263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1186781589596781</v>
+        <v>0.0371248863138198</v>
       </c>
       <c r="C102">
-        <v>-0.1453137837945048</v>
+        <v>-0.1525620723637942</v>
       </c>
       <c r="D102">
-        <v>-0.0706688546190558</v>
+        <v>-0.0918189818948467</v>
       </c>
       <c r="E102">
-        <v>-0.04022266137821916</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03058193212575793</v>
+      </c>
+      <c r="F102">
+        <v>0.06762091115259941</v>
+      </c>
+      <c r="G102">
+        <v>-0.0132866249053904</v>
+      </c>
+      <c r="H102">
+        <v>-0.05026238219283379</v>
+      </c>
+      <c r="I102">
+        <v>-0.01868132714487852</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
